--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23229"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="420" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{04AFD444-F9A0-416D-A394-FD5D3648D3F5}"/>
+  <xr:revisionPtr revIDLastSave="536" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4DA7CE7E-C98F-4C7F-BE0B-7AEB7A842361}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="132">
   <si>
     <t>改定履歴</t>
   </si>
@@ -74,6 +74,16 @@
   </si>
   <si>
     <t>chat_participant</t>
+  </si>
+  <si>
+    <t>物理名変更・フラグのデータ型変更・created_atのデフォルト値を追加・updated_atのその他設定を追加</t>
+  </si>
+  <si>
+    <t>物理名変更・物理名変更に伴う外部キー備考欄の変更・フラグのデータ型変更・created_atのデフォルト値を追加・
+updated_atのその他設定を追加</t>
+  </si>
+  <si>
+    <t>物理名変更に伴う外部キー備考欄の変更・created_atのデフォルト値を追加</t>
   </si>
   <si>
     <t>table_names</t>
@@ -616,10 +626,13 @@
     <t>ユーザーに関する情報を保持するためのテーブル</t>
   </si>
   <si>
+    <t>ENGIN=INNODB</t>
+  </si>
+  <si>
     <t>ユーザーID</t>
   </si>
   <si>
-    <t>user_id</t>
+    <t>id</t>
   </si>
   <si>
     <t>INTEGER</t>
@@ -637,31 +650,28 @@
     <t>ユーザー名</t>
   </si>
   <si>
-    <t>user_name</t>
+    <t>name</t>
   </si>
   <si>
     <t>VARCHAR</t>
   </si>
   <si>
-    <t>UNIQUE</t>
-  </si>
-  <si>
     <t>メールアドレス</t>
   </si>
   <si>
-    <t>user_mailadress</t>
+    <t>mail</t>
   </si>
   <si>
     <t>パスワード</t>
   </si>
   <si>
-    <t>user_password</t>
+    <t>password</t>
   </si>
   <si>
     <t>自己紹介</t>
   </si>
   <si>
-    <t>user_introduction</t>
+    <t>introduction</t>
   </si>
   <si>
     <t>電話番号（勤務先）</t>
@@ -670,26 +680,19 @@
     <t>businessphone_number</t>
   </si>
   <si>
-    <t>CHECK (businessphone_number LIKE '%-%')</t>
-  </si>
-  <si>
     <t>電話番号（携帯電話）</t>
   </si>
   <si>
     <t>cellphone_number</t>
   </si>
   <si>
-    <t>CHECK (cellphone_number LIKE '%-%')
-UNIQUE</t>
-  </si>
-  <si>
     <t>削除フラグ</t>
   </si>
   <si>
-    <t>delete_flg</t>
+    <t>is_deleted</t>
   </si>
   <si>
-    <t>CHAR</t>
+    <t>TINYINT</t>
   </si>
   <si>
     <t>0:未削除,1:削除済み</t>
@@ -704,6 +707,9 @@
     <t>DATETIME</t>
   </si>
   <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
     <t>更新日時</t>
   </si>
   <si>
@@ -713,37 +719,28 @@
     <t>TIMESTAMP</t>
   </si>
   <si>
-    <t>CURRENT_TIMESTAMP</t>
+    <t>ON UPDATE CURRENT_TIMESTAMP</t>
   </si>
   <si>
     <t>チャットルームに関する情報を保持するためのテーブル</t>
   </si>
   <si>
-    <t>INSERT時にchat_participantとの結合を副問合せとして登録する（ダイレクトチャットフラグで必要となるため）</t>
-  </si>
-  <si>
     <t>チャットID</t>
-  </si>
-  <si>
-    <t>chat_id</t>
   </si>
   <si>
     <t>チャットルーム名</t>
   </si>
   <si>
-    <t>chat_name</t>
-  </si>
-  <si>
     <t>チャット概要</t>
   </si>
   <si>
-    <t>chat_overview</t>
+    <t>overview</t>
   </si>
   <si>
     <t>ファイル送信許可フラグ</t>
   </si>
   <si>
-    <t>file_send_flg</t>
+    <t>is_parmission_send_file</t>
   </si>
   <si>
     <t>0:不許可,1:許可</t>
@@ -752,7 +749,7 @@
     <t>ダイレクトチャットフラグ</t>
   </si>
   <si>
-    <t>direct_chat_flg</t>
+    <t>is_direct_chat</t>
   </si>
   <si>
     <t>0:通常のチャットルーム,1:ダイレクトチャットルーム</t>
@@ -767,7 +764,7 @@
     <t>FK</t>
   </si>
   <si>
-    <t>userテーブルのuser_idの外部キー</t>
+    <t>userテーブルのidの外部キー</t>
   </si>
   <si>
     <t>更新者ユーザーID</t>
@@ -776,19 +773,19 @@
     <t>update_user_id</t>
   </si>
   <si>
+    <t>　</t>
+  </si>
+  <si>
     <t>チャットにした投稿の内容を保持するためのテーブル</t>
   </si>
   <si>
     <t>投稿ID</t>
   </si>
   <si>
-    <t>post_id</t>
-  </si>
-  <si>
     <t>投稿内容</t>
   </si>
   <si>
-    <t>post_content</t>
+    <t>content</t>
   </si>
   <si>
     <t>添付ファイル名</t>
@@ -797,7 +794,10 @@
     <t>file_name</t>
   </si>
   <si>
-    <t>chatテーブルのchat_idの外部キー</t>
+    <t>chat_id</t>
+  </si>
+  <si>
+    <t>chatテーブルのidの外部キー</t>
   </si>
   <si>
     <t>投稿者ユーザーID</t>
@@ -812,13 +812,7 @@
     <t>タスクID</t>
   </si>
   <si>
-    <t>task_id</t>
-  </si>
-  <si>
     <t>タスク内容</t>
-  </si>
-  <si>
-    <t>task_content</t>
   </si>
   <si>
     <t>担当者ユーザーID</t>
@@ -836,13 +830,16 @@
     <t>完了フラグ</t>
   </si>
   <si>
-    <t>complete_flg</t>
+    <t>is_completed</t>
   </si>
   <si>
     <t>0:未完了,1:完了</t>
   </si>
   <si>
     <t>チャットへの参加者に関する情報を保持するためのテーブル</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
   <si>
     <t>PK・FK</t>
@@ -988,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1064,20 +1061,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1090,6 +1076,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1312,8 +1312,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1423,7 +1423,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="42">
+      <c r="A4" s="35">
         <v>44075</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1432,7 +1432,7 @@
       <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3"/>
@@ -1459,7 +1459,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="42">
+      <c r="A5" s="35">
         <v>44075</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1468,7 +1468,7 @@
       <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
@@ -1495,7 +1495,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="42">
+      <c r="A6" s="35">
         <v>44075</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1504,7 +1504,7 @@
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="37" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="3"/>
@@ -1531,7 +1531,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
-      <c r="A7" s="42">
+      <c r="A7" s="35">
         <v>44075</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1540,7 +1540,7 @@
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="37" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3"/>
@@ -1567,7 +1567,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="12.75">
-      <c r="A8" s="42">
+      <c r="A8" s="35">
         <v>44075</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1576,7 +1576,7 @@
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="37" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="3"/>
@@ -1603,10 +1603,18 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="12.75">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="40">
+        <v>44076</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1630,11 +1638,19 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="12.75">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+    <row r="10" spans="1:26" ht="27" customHeight="1">
+      <c r="A10" s="40">
+        <v>44076</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>9</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1658,11 +1674,19 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="12.75">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+    <row r="11" spans="1:26" ht="27" customHeight="1">
+      <c r="A11" s="40">
+        <v>44076</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>9</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1686,11 +1710,19 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="12.75">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+    <row r="12" spans="1:26" ht="27" customHeight="1">
+      <c r="A12" s="40">
+        <v>44076</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>9</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1715,10 +1747,18 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="12.75">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="40">
+        <v>44076</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -30250,168 +30290,168 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+        <v>18</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="33"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="33"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="33"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="33"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30421,23 +30461,23 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="33"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -30446,123 +30486,123 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="33"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="33"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="33"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="33"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30581,11 +30621,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30593,13 +30633,13 @@
     <col min="1" max="1" width="14.42578125" style="23"/>
     <col min="2" max="2" width="3.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="14.42578125" style="23"/>
   </cols>
@@ -30608,210 +30648,208 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+        <v>18</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="33"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="33"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F5" s="26">
         <v>11</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="33"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>62</v>
+      <c r="C6" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F6" s="26">
         <v>100</v>
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I6" s="31"/>
-      <c r="J6" s="31" t="s">
-        <v>65</v>
-      </c>
+      <c r="J6" s="31"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="33"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F7" s="26">
         <v>100</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I7" s="31"/>
-      <c r="J7" s="31" t="s">
-        <v>65</v>
-      </c>
+      <c r="J7" s="31"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="33"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>68</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>64</v>
       </c>
       <c r="F8" s="26">
         <v>100</v>
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="33"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F9" s="26">
         <v>1000</v>
@@ -30823,19 +30861,19 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="33"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F10" s="26">
         <v>13</v>
@@ -30843,25 +30881,23 @@
       <c r="G10" s="31"/>
       <c r="H10" s="27"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="31" t="s">
-        <v>74</v>
-      </c>
+      <c r="J10" s="31"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="25.5">
-      <c r="A11" s="33"/>
-      <c r="B11" s="44">
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="42"/>
+      <c r="B11" s="37">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F11" s="26">
         <v>13</v>
@@ -30869,93 +30905,95 @@
       <c r="G11" s="31"/>
       <c r="H11" s="27"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="43" t="s">
-        <v>77</v>
-      </c>
+      <c r="J11" s="36"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="33"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="26">
         <v>1</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="38">
         <v>0</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="46" t="s">
-        <v>81</v>
+      <c r="K12" s="39" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="33"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="32"/>
-      <c r="G13" s="31"/>
+      <c r="G13" s="31" t="s">
+        <v>86</v>
+      </c>
       <c r="H13" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="33"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="J14" s="31" t="s">
+        <v>90</v>
+      </c>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="33"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30971,7 +31009,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="33"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30985,6 +31023,9 @@
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
       <c r="K16" s="20"/>
+    </row>
+    <row r="18" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H18" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31003,11 +31044,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31015,13 +31056,13 @@
     <col min="1" max="1" width="14.42578125" style="23"/>
     <col min="2" max="2" width="3.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="46.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="14.42578125" style="23"/>
   </cols>
@@ -31030,118 +31071,118 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+        <v>18</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="33"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="33"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F5" s="26">
         <v>11</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="33"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31150,36 +31191,36 @@
         <v>93</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F6" s="26">
         <v>100</v>
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="33"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F7" s="26">
         <v>1000</v>
@@ -31191,19 +31232,19 @@
       <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="33"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>80</v>
+      <c r="E8" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="F8" s="26">
         <v>1</v>
@@ -31212,28 +31253,28 @@
         <v>1</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
       <c r="K8" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="33"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>80</v>
+      <c r="E9" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="F9" s="26">
         <v>1</v>
@@ -31242,28 +31283,28 @@
         <v>0</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="33"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="12" t="s">
         <v>80</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="F10" s="26">
         <v>1</v>
@@ -31272,126 +31313,130 @@
         <v>0</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="33"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F11" s="26">
         <v>11</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" s="31"/>
       <c r="K11" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="33"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" s="26"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="31" t="s">
+        <v>86</v>
+      </c>
       <c r="H12" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="33"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>108</v>
-      </c>
       <c r="E13" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F13" s="32">
         <v>11</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="33"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="J14" s="31" t="s">
+        <v>90</v>
+      </c>
       <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="33"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31407,7 +31452,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="33"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31422,11 +31467,18 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
+    <row r="18" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G18" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31443,7 +31495,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31457,7 +31509,7 @@
     <col min="7" max="7" width="23.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="14.42578125" style="23"/>
   </cols>
@@ -31466,86 +31518,88 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="33"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="33"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -31554,66 +31608,66 @@
         <v>110</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F5" s="26">
         <v>11</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="33"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F6" s="26">
         <v>1000</v>
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="33"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F7" s="26">
         <v>100</v>
@@ -31625,29 +31679,29 @@
       <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="33"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F8" s="26">
         <v>11</v>
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="20" t="s">
@@ -31655,19 +31709,19 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="33"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="12" t="s">
         <v>80</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="F9" s="26">
         <v>1</v>
@@ -31675,15 +31729,17 @@
       <c r="G9" s="31">
         <v>0</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="33"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31692,28 +31748,28 @@
         <v>117</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F10" s="26">
         <v>11</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="33"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31722,78 +31778,82 @@
         <v>118</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" s="26"/>
-      <c r="G11" s="14"/>
+      <c r="G11" s="31" t="s">
+        <v>86</v>
+      </c>
       <c r="H11" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="33"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>108</v>
-      </c>
       <c r="E12" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F12" s="32">
         <v>11</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J12" s="31"/>
       <c r="K12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="33"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="J13" s="31" t="s">
+        <v>90</v>
+      </c>
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="33"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31809,7 +31869,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="33"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31825,7 +31885,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="33"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31861,7 +31921,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31875,7 +31935,7 @@
     <col min="7" max="7" width="23.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="14.42578125" style="23"/>
   </cols>
@@ -31884,86 +31944,88 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="33"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="33"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -31972,106 +32034,106 @@
         <v>120</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F5" s="26">
         <v>11</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="33"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F6" s="26">
         <v>1000</v>
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="33"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F7" s="26">
         <v>11</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="33"/>
-      <c r="B8" s="35">
+      <c r="A8" s="42"/>
+      <c r="B8" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F8" s="26">
         <v>11</v>
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="31" t="s">
@@ -32079,19 +32141,19 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="33"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>127</v>
+      <c r="C9" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="31"/>
@@ -32101,19 +32163,19 @@
       <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="33"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>80</v>
+        <v>127</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="F10" s="26">
         <v>1</v>
@@ -32122,28 +32184,28 @@
         <v>0</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="33"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="12" t="s">
         <v>80</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="F11" s="26">
         <v>1</v>
@@ -32152,126 +32214,130 @@
         <v>0</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="33"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="E12" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F12" s="26">
         <v>11</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J12" s="31"/>
       <c r="K12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="33"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="26"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="31" t="s">
+        <v>86</v>
+      </c>
       <c r="H13" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="33"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>108</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F14" s="32">
         <v>11</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="33"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="J15" s="31" t="s">
+        <v>90</v>
+      </c>
       <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="33"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32307,7 +32373,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32318,7 +32384,7 @@
     <col min="4" max="4" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" style="23" bestFit="1" customWidth="1"/>
@@ -32330,138 +32396,140 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+        <v>18</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="33"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="33"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F5" s="26">
         <v>11</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="33"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F6" s="26">
         <v>11</v>
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J6" s="31"/>
       <c r="K6" s="31" t="s">
@@ -32469,31 +32537,33 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="33"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="31"/>
+      <c r="G7" s="31" t="s">
+        <v>86</v>
+      </c>
       <c r="H7" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="33"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32509,7 +32579,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="33"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32525,7 +32595,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="33"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32541,7 +32611,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="33"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32557,7 +32627,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="33"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32573,7 +32643,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="33"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32589,7 +32659,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="33"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32605,7 +32675,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="33"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32621,7 +32691,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="33"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32673,82 +32743,82 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+        <v>18</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="33"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="33"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -32764,7 +32834,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="33"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32780,7 +32850,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="33"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32796,7 +32866,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="33"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32812,7 +32882,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="33"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32828,7 +32898,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="33"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32844,7 +32914,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="33"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32860,7 +32930,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="33"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32876,7 +32946,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="33"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32892,7 +32962,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="33"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32908,7 +32978,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="33"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32924,7 +32994,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="33"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23229"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="536" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4DA7CE7E-C98F-4C7F-BE0B-7AEB7A842361}"/>
+  <xr:revisionPtr revIDLastSave="539" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0845A426-2CE6-4AD5-9EC7-A01EC622EA74}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -740,7 +740,7 @@
     <t>ファイル送信許可フラグ</t>
   </si>
   <si>
-    <t>is_parmission_send_file</t>
+    <t>is_file_sendable</t>
   </si>
   <si>
     <t>0:不許可,1:許可</t>
@@ -818,7 +818,7 @@
     <t>担当者ユーザーID</t>
   </si>
   <si>
-    <t>main_user_id</t>
+    <t>assigned_user_id</t>
   </si>
   <si>
     <t>期限</t>
@@ -1312,7 +1312,7 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A13"/>
     </sheetView>
   </sheetViews>
@@ -31048,7 +31048,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31494,7 +31494,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="B5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
@@ -31919,9 +31919,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:D3"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
